--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T17:47:22-03:00</t>
+    <t>2024-09-09T18:39:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T18:39:42-03:00</t>
+    <t>2024-09-10T08:50:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T08:50:18-03:00</t>
+    <t>2025-02-21T13:43:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:43:19-03:00</t>
+    <t>2025-03-20T08:51:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T08:51:13-03:00</t>
+    <t>2025-03-24T09:32:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:32:33-03:00</t>
+    <t>2025-03-24T16:25:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:25:06-03:00</t>
+    <t>2025-03-25T08:49:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T08:49:07-03:00</t>
+    <t>2025-04-08T14:01:09-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T14:01:09-03:00</t>
+    <t>2025-04-08T16:57:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T16:57:34-03:00</t>
+    <t>2025-04-10T19:36:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T19:36:54-03:00</t>
+    <t>2025-04-11T11:36:21-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
+++ b/docs/v043/StructureDefinition-co-address-zonaResidencia.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:36:21-03:00</t>
+    <t>2025-04-11T11:51:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
